--- a/__mocks__/Preguntas Completas Por Tipo/preguntaObjetivasConservador.xlsx
+++ b/__mocks__/Preguntas Completas Por Tipo/preguntaObjetivasConservador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sullc\Documents\TPI\Workspace\TPIntegrador\Angular\TPI-Front\src\assets\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tpi2\git\TPI-Front\__mocks__\Preguntas Completas Por Tipo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F2553C-DB20-4025-92DE-0F92CD099391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3174379-EAF4-4063-9521-42C302DBE81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
   </bookViews>
   <sheets>
     <sheet name="categoria" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
   <si>
     <t>nombre</t>
   </si>
@@ -180,13 +180,88 @@
   </si>
   <si>
     <t>B- Las ganancias de capital en estas inversiones están exentas de impuestos.</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>PCC1</t>
+  </si>
+  <si>
+    <t>PCC2</t>
+  </si>
+  <si>
+    <t>PCC3</t>
+  </si>
+  <si>
+    <t>PCC4</t>
+  </si>
+  <si>
+    <t>PCC5</t>
+  </si>
+  <si>
+    <t>PCC6</t>
+  </si>
+  <si>
+    <t>RCC1</t>
+  </si>
+  <si>
+    <t>RCC2</t>
+  </si>
+  <si>
+    <t>RCC3</t>
+  </si>
+  <si>
+    <t>RCC4</t>
+  </si>
+  <si>
+    <t>RCC5</t>
+  </si>
+  <si>
+    <t>RCC6</t>
+  </si>
+  <si>
+    <t>RCC7</t>
+  </si>
+  <si>
+    <t>RCC8</t>
+  </si>
+  <si>
+    <t>RCC9</t>
+  </si>
+  <si>
+    <t>RCC10</t>
+  </si>
+  <si>
+    <t>RCC11</t>
+  </si>
+  <si>
+    <t>RCC12</t>
+  </si>
+  <si>
+    <t>RCC13</t>
+  </si>
+  <si>
+    <t>RCC14</t>
+  </si>
+  <si>
+    <t>RCC15</t>
+  </si>
+  <si>
+    <t>RCC16</t>
+  </si>
+  <si>
+    <t>RCC17</t>
+  </si>
+  <si>
+    <t>RCC18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,14 +271,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,20 +326,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,15 +661,15 @@
       <selection activeCell="A3" sqref="A3:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -614,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -639,12 +705,12 @@
       <selection activeCell="A3" sqref="A3:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -655,11 +721,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -674,19 +740,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557A189-07BD-4DD4-AE4E-E2A608F405F0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="112.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="112.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -705,8 +772,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -725,12 +795,15 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
@@ -745,12 +818,15 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C4" t="s">
@@ -765,12 +841,15 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
@@ -785,8 +864,11 @@
       <c r="F5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -805,12 +887,15 @@
       <c r="F6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C7" t="s">
@@ -825,7 +910,9 @@
       <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -838,19 +925,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8759312-058C-4473-8FFB-A755D6FBD3C0}">
   <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="142.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="12" max="12" width="49.5703125" customWidth="1"/>
+    <col min="3" max="3" width="142.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -869,8 +957,11 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -887,19 +978,22 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D3">
@@ -909,12 +1003,15 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -931,12 +1028,15 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -953,19 +1053,22 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D6">
@@ -975,12 +1078,15 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -997,12 +1103,15 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1018,13 +1127,16 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1040,13 +1152,16 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1062,13 +1177,16 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1084,13 +1202,16 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1106,13 +1227,16 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1128,13 +1252,16 @@
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1150,13 +1277,16 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1172,12 +1302,15 @@
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1193,13 +1326,16 @@
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1215,20 +1351,23 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D18">
@@ -1237,13 +1376,16 @@
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1259,563 +1401,566 @@
       <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I109" s="2"/>
-    </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I110" s="2"/>
-    </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I111" s="2"/>
-    </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I112" s="2"/>
-    </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I113" s="2"/>
-    </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I114" s="2"/>
-    </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I115" s="2"/>
-    </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I119" s="2"/>
-    </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I128" s="2"/>
-    </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I134" s="2"/>
-    </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I135" s="2"/>
-    </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I136" s="2"/>
-    </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I137" s="2"/>
-    </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I138" s="2"/>
-    </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I139" s="2"/>
-    </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I140" s="2"/>
-    </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I141" s="2"/>
-    </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I142" s="2"/>
-    </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I143" s="2"/>
-    </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I144" s="2"/>
-    </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I145" s="2"/>
-    </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I146" s="2"/>
-    </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I147" s="2"/>
-    </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I148" s="2"/>
-    </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I149" s="2"/>
-    </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I150" s="2"/>
-    </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I151" s="2"/>
-    </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I152" s="2"/>
-    </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I153" s="2"/>
-    </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I154" s="2"/>
-    </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I155" s="2"/>
-    </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I156" s="2"/>
-    </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I157" s="2"/>
-    </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I158" s="2"/>
-    </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I159" s="2"/>
-    </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I160" s="2"/>
-    </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I161" s="2"/>
-    </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I162" s="2"/>
-    </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I163" s="2"/>
-    </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I164" s="2"/>
-    </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I165" s="2"/>
-    </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I166" s="2"/>
-    </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I167" s="2"/>
-    </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I168" s="2"/>
-    </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I169" s="2"/>
-    </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I170" s="2"/>
-    </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I171" s="2"/>
-    </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I172" s="2"/>
-    </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I173" s="2"/>
-    </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I174" s="2"/>
-    </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I175" s="2"/>
-    </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I176" s="2"/>
-    </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I177" s="2"/>
-    </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I178" s="2"/>
-    </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I179" s="2"/>
-    </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I180" s="2"/>
-    </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I181" s="2"/>
-    </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I182" s="2"/>
-    </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I183" s="2"/>
-    </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I184" s="2"/>
-    </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I185" s="2"/>
-    </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I186" s="2"/>
-    </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I187" s="2"/>
-    </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I188" s="2"/>
-    </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I189" s="2"/>
-    </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I190" s="2"/>
-    </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I191" s="2"/>
-    </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I192" s="2"/>
-    </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I193" s="2"/>
-    </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I194" s="2"/>
-    </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I195" s="2"/>
-    </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I196" s="2"/>
-    </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I197" s="2"/>
-    </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I198" s="2"/>
-    </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I199" s="2"/>
-    </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I200" s="2"/>
-    </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I201" s="2"/>
-    </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I202" s="2"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I180" s="1"/>
+    </row>
+    <row r="181" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I181" s="1"/>
+    </row>
+    <row r="182" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I194" s="1"/>
+    </row>
+    <row r="195" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I195" s="1"/>
+    </row>
+    <row r="196" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I199" s="1"/>
+    </row>
+    <row r="200" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I202" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1824,6 +1969,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100641454CD1F1E6E428D478A5DC37BACE7" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ef1708d85dca7377bd826ec35b62ca84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xmlns:ns4="7798dcc9-908f-468f-826a-c598f412d6fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69e720de7d55d3231f99e1910e4c19d8" ns3:_="" ns4:_="">
     <xsd:import namespace="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
@@ -2012,15 +2166,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2030,6 +2175,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2044,14 +2197,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
